--- a/medicine/Hématologie/Système_Diégo/Système_Diégo.xlsx
+++ b/medicine/Hématologie/Système_Diégo/Système_Diégo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Di%C3%A9go</t>
+          <t>Système_Diégo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système Diégo est un système de groupe sanguin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Di%C3%A9go</t>
+          <t>Système_Diégo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce système, noté DI, no 010 dans la nomenclature de l'ISBT, (en) 110500 dans la nomenclature OMIM, comporte 22 antigènes dont 21 référencés (en 2012) à l'ISBT, deux couples antithétiques (Diégo a -DI1 et b -DI2, mutation leu854pro, Wright a, DI3 et b, DI4, mutation lys658glu) et 17 antigènes privés de très faible fréquence, dont un antigène (DI :19, Wu) a trouvé son antigène antithétique DISK (DI22)[1] en 2010 grâce à l'anticorps d'une femme (Mme SK) primigeste non transfusée de 34 ans. Ce troisième couple d'antigènes antithétiques (DISK-Wu soit DI9-DI22) résulte d'une mutation G&gt;C en 1694 soit Gly565Ala.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce système, noté DI, no 010 dans la nomenclature de l'ISBT, (en) 110500 dans la nomenclature OMIM, comporte 22 antigènes dont 21 référencés (en 2012) à l'ISBT, deux couples antithétiques (Diégo a -DI1 et b -DI2, mutation leu854pro, Wright a, DI3 et b, DI4, mutation lys658glu) et 17 antigènes privés de très faible fréquence, dont un antigène (DI :19, Wu) a trouvé son antigène antithétique DISK (DI22) en 2010 grâce à l'anticorps d'une femme (Mme SK) primigeste non transfusée de 34 ans. Ce troisième couple d'antigènes antithétiques (DISK-Wu soit DI9-DI22) résulte d'une mutation G&gt;C en 1694 soit Gly565Ala.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Di%C3%A9go</t>
+          <t>Système_Diégo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Protéine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce système est lié aux diverses mutations de la protéine « bande 3 », (encore appelée échangeur d'anions : AE1, ou CD233), OMIM (en) 109270, dont le gène en 17q21-q22 comporte 20 exons répartis sur 18 à 20 kilobases. Cette glycoprotéine de 911 AA (N-glycosylée en Asn642 sur la quatrième boucle extracellulaire, chaîne glycosidique portant les antigènes de groupe ABO et Ii) dont les extrémités N et C terminales sont intracytoplasmiques, comporte 14 (12 selon un schéma moins courant) passages intramembranaires de 479 AA, soit 14 (modèle classique) hélices α hydrophobes, est une transporteuse d'anions (HCO3/Cl), et participe également au maintien de l'intégrité de l'hématie par les liens de sa longue partie intracytoplasmique  N-terminale (403 AA) avec les protéines sous-membranaires via l'ankyrine et la protéine 4.2. Une délétion des aminoacides 400-408, rencontrée en Asie du Sud-Est, entraîne une ovalocytose des hématies.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Di%C3%A9go</t>
+          <t>Système_Diégo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Lien fonctionnel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe un lien fonctionnel avec la glycophorine A, système MNS. L'absence de GPA (phénotypes Ena- ou génotypes Mk/Mk entraîne la perte d'expression des antigènes Wright (DI3, DI4). Cette expression des épitopes Wright serait liée au domaine intramembranaire de la GPA, au huitième domaine intramembranaire de la bande 3 et aux régions extracellulaires adjacentes.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Di%C3%A9go</t>
+          <t>Système_Diégo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Génétique des populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intérêt de ce groupe sanguin réside surtout dans sa répartition géographique, les incidences cliniques étant exceptionnelles, parfois graves (anti Dia découvert à l'occasion d'une maladie hémolytique du nouveau-né) parfois bénignes ou inexistantes (anti Wra) selon les anticorps en cause. Si les sujets Di(a+,b+) (DI:1,2) ne se rencontrent que chez moins de 0,1 % des caucasiens ou des noirs (qui sont à plus de 99,9 % Di(a-, b+), et ne peuvent donc poser qu'exceptionnellement un problème transfusionnel en Europe), ils se voient chez 10 % des asiatiques et chez 36 % des indiens sud américains. Ceci corrobore l'idée du peuplement des Amériques par des migrations venant de l'Extrême-Orient via le détroit de Behring. Mais nous quittons là l'immuno-hématologie et gagnons l'anthropologie, l'ethnologie et la génétique des populations...expliquant peut-être le petit problème des Inuits d'Alaska par rapport à leurs petits cousins de Sibérie (biais d'échantillonnages ? isolat ? dérive génique ?...).
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Syst%C3%A8me_Di%C3%A9go</t>
+          <t>Système_Diégo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,6 +656,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
